--- a/data/pca/factorExposure/factorExposure_2016-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01023972678408275</v>
+        <v>-0.01292100102222311</v>
       </c>
       <c r="C2">
-        <v>-0.05557361429133189</v>
+        <v>0.03965529765733996</v>
       </c>
       <c r="D2">
-        <v>-0.04080684494572529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05451924743689424</v>
+      </c>
+      <c r="E2">
+        <v>0.08889744110082685</v>
+      </c>
+      <c r="F2">
+        <v>-0.08546873053477365</v>
+      </c>
+      <c r="G2">
+        <v>0.03176862812236747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04071952500172404</v>
+        <v>-0.02546839720634295</v>
       </c>
       <c r="C3">
-        <v>-0.1201306307553585</v>
+        <v>0.06760854428824772</v>
       </c>
       <c r="D3">
-        <v>-0.09380722785236817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07480533211232511</v>
+      </c>
+      <c r="E3">
+        <v>0.06817163430810971</v>
+      </c>
+      <c r="F3">
+        <v>0.02551346359757939</v>
+      </c>
+      <c r="G3">
+        <v>0.05459280256850146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06028490300247727</v>
+        <v>-0.05849849033559973</v>
       </c>
       <c r="C4">
-        <v>-0.06148415863010041</v>
+        <v>0.0640134780715962</v>
       </c>
       <c r="D4">
-        <v>-0.02378073030087018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04765739170023881</v>
+      </c>
+      <c r="E4">
+        <v>0.08618600160198987</v>
+      </c>
+      <c r="F4">
+        <v>-0.04737159946769372</v>
+      </c>
+      <c r="G4">
+        <v>0.09577323316111028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03977878654129029</v>
+        <v>-0.03501830209024216</v>
       </c>
       <c r="C6">
-        <v>-0.03712567678398427</v>
+        <v>0.02814492144153683</v>
       </c>
       <c r="D6">
-        <v>-0.02274317822286716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05420538400198913</v>
+      </c>
+      <c r="E6">
+        <v>0.08891577577265614</v>
+      </c>
+      <c r="F6">
+        <v>-0.03446599046448499</v>
+      </c>
+      <c r="G6">
+        <v>0.07194108235072573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02343246921017048</v>
+        <v>-0.01880349349217721</v>
       </c>
       <c r="C7">
-        <v>-0.04543400603592341</v>
+        <v>0.03861441943532692</v>
       </c>
       <c r="D7">
-        <v>0.01292527307885227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03076769471733133</v>
+      </c>
+      <c r="E7">
+        <v>0.06359544629802996</v>
+      </c>
+      <c r="F7">
+        <v>-0.07674428149913388</v>
+      </c>
+      <c r="G7">
+        <v>0.09436430417386832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006036025442253431</v>
+        <v>-0.003514317955973097</v>
       </c>
       <c r="C8">
-        <v>-0.03633343323278478</v>
+        <v>0.0323609231074555</v>
       </c>
       <c r="D8">
-        <v>-0.02534717687671596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02922925591545419</v>
+      </c>
+      <c r="E8">
+        <v>0.05947834778684868</v>
+      </c>
+      <c r="F8">
+        <v>-0.02203995633566647</v>
+      </c>
+      <c r="G8">
+        <v>0.04107126322993725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03458466416728716</v>
+        <v>-0.03792144275122994</v>
       </c>
       <c r="C9">
-        <v>-0.04773948306555006</v>
+        <v>0.05095639859569823</v>
       </c>
       <c r="D9">
-        <v>-0.00892554855664647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03364920164353405</v>
+      </c>
+      <c r="E9">
+        <v>0.07266431169147376</v>
+      </c>
+      <c r="F9">
+        <v>-0.05912107545984214</v>
+      </c>
+      <c r="G9">
+        <v>0.08748659795647513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07631045320350549</v>
+        <v>-0.1015971633654855</v>
       </c>
       <c r="C10">
-        <v>0.1872924455819414</v>
+        <v>-0.1960905543790614</v>
       </c>
       <c r="D10">
-        <v>0.009868865656678886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01515637312511764</v>
+      </c>
+      <c r="E10">
+        <v>0.03903140529816967</v>
+      </c>
+      <c r="F10">
+        <v>-0.01932239578807843</v>
+      </c>
+      <c r="G10">
+        <v>0.03100128927681924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04266931261268206</v>
+        <v>-0.0371965282273843</v>
       </c>
       <c r="C11">
-        <v>-0.05043939728350932</v>
+        <v>0.04750531804119189</v>
       </c>
       <c r="D11">
-        <v>-0.008923009181998334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02918287273590903</v>
+      </c>
+      <c r="E11">
+        <v>0.02610054116189791</v>
+      </c>
+      <c r="F11">
+        <v>-0.04535197911274388</v>
+      </c>
+      <c r="G11">
+        <v>0.06940875787165132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04437351766606439</v>
+        <v>-0.0390178184752595</v>
       </c>
       <c r="C12">
-        <v>-0.0467955689097055</v>
+        <v>0.04534010328290954</v>
       </c>
       <c r="D12">
-        <v>0.0006920000481911581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02351174833435127</v>
+      </c>
+      <c r="E12">
+        <v>0.03381368400979283</v>
+      </c>
+      <c r="F12">
+        <v>-0.04762811506340849</v>
+      </c>
+      <c r="G12">
+        <v>0.0664051363784226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01473547660629582</v>
+        <v>-0.01146122276555406</v>
       </c>
       <c r="C13">
-        <v>-0.05346498131460187</v>
+        <v>0.0418528085295763</v>
       </c>
       <c r="D13">
-        <v>-0.00202684927452459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03907281660692635</v>
+      </c>
+      <c r="E13">
+        <v>0.09722781456112126</v>
+      </c>
+      <c r="F13">
+        <v>-0.06639435676290369</v>
+      </c>
+      <c r="G13">
+        <v>0.09775239106215589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008270414662335789</v>
+        <v>-0.004704146536495072</v>
       </c>
       <c r="C14">
-        <v>-0.04240042396127535</v>
+        <v>0.03341656268139939</v>
       </c>
       <c r="D14">
-        <v>0.01359471651521282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02031882159066206</v>
+      </c>
+      <c r="E14">
+        <v>0.05072289245159283</v>
+      </c>
+      <c r="F14">
+        <v>-0.08118549321293093</v>
+      </c>
+      <c r="G14">
+        <v>0.07910870039196706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001617321444093331</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005390827525030863</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007254799991671179</v>
+      </c>
+      <c r="E15">
+        <v>0.004829189056954539</v>
+      </c>
+      <c r="F15">
+        <v>-0.00591428950621637</v>
+      </c>
+      <c r="G15">
+        <v>0.006768430959065271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03904627756263967</v>
+        <v>-0.03460376887399117</v>
       </c>
       <c r="C16">
-        <v>-0.04925361393316354</v>
+        <v>0.04483352396763828</v>
       </c>
       <c r="D16">
-        <v>-0.002619954757356969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0225473895487964</v>
+      </c>
+      <c r="E16">
+        <v>0.04055919831062726</v>
+      </c>
+      <c r="F16">
+        <v>-0.05437222295031387</v>
+      </c>
+      <c r="G16">
+        <v>0.05665862626349091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02365306491662564</v>
+        <v>-0.01756014116253278</v>
       </c>
       <c r="C19">
-        <v>-0.06083586182652921</v>
+        <v>0.04432534222836897</v>
       </c>
       <c r="D19">
-        <v>-0.0868762119836851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08698043959349817</v>
+      </c>
+      <c r="E19">
+        <v>0.1151443688439555</v>
+      </c>
+      <c r="F19">
+        <v>-0.0683829501070988</v>
+      </c>
+      <c r="G19">
+        <v>0.04662142707748738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01721217566638009</v>
+        <v>-0.01352630450627374</v>
       </c>
       <c r="C20">
-        <v>-0.04775878951923635</v>
+        <v>0.03896127603166043</v>
       </c>
       <c r="D20">
-        <v>-0.004498217342954858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02814774711202423</v>
+      </c>
+      <c r="E20">
+        <v>0.07739030990498587</v>
+      </c>
+      <c r="F20">
+        <v>-0.05513420973737666</v>
+      </c>
+      <c r="G20">
+        <v>0.06834843161021076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01093162167637477</v>
+        <v>-0.009829508930597532</v>
       </c>
       <c r="C21">
-        <v>-0.05057499088236563</v>
+        <v>0.04086332880633349</v>
       </c>
       <c r="D21">
-        <v>-0.03228841041355324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05230999061998106</v>
+      </c>
+      <c r="E21">
+        <v>0.1203921334981576</v>
+      </c>
+      <c r="F21">
+        <v>-0.09007235444215697</v>
+      </c>
+      <c r="G21">
+        <v>0.1044451416289942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001342508572841882</v>
+        <v>-0.002635562685911416</v>
       </c>
       <c r="C22">
-        <v>-0.001023360505377414</v>
+        <v>0.02671723722815225</v>
       </c>
       <c r="D22">
-        <v>-0.003383322716550452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04155805796107225</v>
+      </c>
+      <c r="E22">
+        <v>0.04277983457369043</v>
+      </c>
+      <c r="F22">
+        <v>0.009429243686142546</v>
+      </c>
+      <c r="G22">
+        <v>0.05697648740266984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001348230873268401</v>
+        <v>-0.002719652255989551</v>
       </c>
       <c r="C23">
-        <v>-0.001023850636415576</v>
+        <v>0.02685859439993217</v>
       </c>
       <c r="D23">
-        <v>-0.003387690752115236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04111321015288018</v>
+      </c>
+      <c r="E23">
+        <v>0.0430273216759484</v>
+      </c>
+      <c r="F23">
+        <v>0.009725013693463862</v>
+      </c>
+      <c r="G23">
+        <v>0.05697201036056431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03626632834663219</v>
+        <v>-0.0348691873838542</v>
       </c>
       <c r="C24">
-        <v>-0.04984548905295902</v>
+        <v>0.05206362361186363</v>
       </c>
       <c r="D24">
-        <v>-0.004773724797394845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0222541165178261</v>
+      </c>
+      <c r="E24">
+        <v>0.04163381488026965</v>
+      </c>
+      <c r="F24">
+        <v>-0.0559925493785214</v>
+      </c>
+      <c r="G24">
+        <v>0.06911190589163325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04921923345964264</v>
+        <v>-0.0440838981131265</v>
       </c>
       <c r="C25">
-        <v>-0.06055123737954893</v>
+        <v>0.05597852545015822</v>
       </c>
       <c r="D25">
-        <v>0.007185387053859646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02085462338063985</v>
+      </c>
+      <c r="E25">
+        <v>0.03096296954250267</v>
+      </c>
+      <c r="F25">
+        <v>-0.04762311203250124</v>
+      </c>
+      <c r="G25">
+        <v>0.08068505161174151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0165800165146177</v>
+        <v>-0.01511679002119526</v>
       </c>
       <c r="C26">
-        <v>-0.01757160928734498</v>
+        <v>0.01714557567482716</v>
       </c>
       <c r="D26">
-        <v>0.001933498984771495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02153508612660694</v>
+      </c>
+      <c r="E26">
+        <v>0.05131854070144037</v>
+      </c>
+      <c r="F26">
+        <v>-0.06181146876552308</v>
+      </c>
+      <c r="G26">
+        <v>0.04887002127970319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09176671781071173</v>
+        <v>-0.1374919199127791</v>
       </c>
       <c r="C28">
-        <v>0.2461918110401976</v>
+        <v>-0.2526885099619067</v>
       </c>
       <c r="D28">
-        <v>0.0106087040216443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03135491361087073</v>
+      </c>
+      <c r="E28">
+        <v>0.05494278400028681</v>
+      </c>
+      <c r="F28">
+        <v>-0.0242369135563347</v>
+      </c>
+      <c r="G28">
+        <v>0.04714622510947063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007138538262298389</v>
+        <v>-0.005401362254058072</v>
       </c>
       <c r="C29">
-        <v>-0.03419199428822695</v>
+        <v>0.02979842722894329</v>
       </c>
       <c r="D29">
-        <v>0.01860699136994794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0134235248001339</v>
+      </c>
+      <c r="E29">
+        <v>0.04814934653293489</v>
+      </c>
+      <c r="F29">
+        <v>-0.0689998591865964</v>
+      </c>
+      <c r="G29">
+        <v>0.08348262948646226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0453525937815251</v>
+        <v>-0.04107676588529802</v>
       </c>
       <c r="C30">
-        <v>-0.0531541961896053</v>
+        <v>0.05627166991020559</v>
       </c>
       <c r="D30">
-        <v>-0.0653404923813428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09460908644346831</v>
+      </c>
+      <c r="E30">
+        <v>0.08058362308607168</v>
+      </c>
+      <c r="F30">
+        <v>-0.07907017635537003</v>
+      </c>
+      <c r="G30">
+        <v>0.06873292874020663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05836049539007768</v>
+        <v>-0.05711141127049345</v>
       </c>
       <c r="C31">
-        <v>-0.04510210478964826</v>
+        <v>0.06124165290097165</v>
       </c>
       <c r="D31">
-        <v>0.04141771535821968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01949084857721741</v>
+      </c>
+      <c r="E31">
+        <v>0.06498124259790007</v>
+      </c>
+      <c r="F31">
+        <v>-0.02899283218055147</v>
+      </c>
+      <c r="G31">
+        <v>0.08695536123423236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001331942924103145</v>
+        <v>-0.004560379896786311</v>
       </c>
       <c r="C32">
-        <v>-0.04422458324780196</v>
+        <v>0.03497175589903187</v>
       </c>
       <c r="D32">
-        <v>-0.05173446526859186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05380917268001099</v>
+      </c>
+      <c r="E32">
+        <v>0.06062526286115522</v>
+      </c>
+      <c r="F32">
+        <v>-0.06842946691690271</v>
+      </c>
+      <c r="G32">
+        <v>0.06254475302936149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03179897049545535</v>
+        <v>-0.02654343360267888</v>
       </c>
       <c r="C33">
-        <v>-0.05944651235051614</v>
+        <v>0.05302283783610716</v>
       </c>
       <c r="D33">
-        <v>-0.03191816132282822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06490952820953715</v>
+      </c>
+      <c r="E33">
+        <v>0.0911896984601992</v>
+      </c>
+      <c r="F33">
+        <v>-0.0776006203534825</v>
+      </c>
+      <c r="G33">
+        <v>0.09907171259245874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04671197011390704</v>
+        <v>-0.04149960674496102</v>
       </c>
       <c r="C34">
-        <v>-0.06526302184262257</v>
+        <v>0.06337108119409578</v>
       </c>
       <c r="D34">
-        <v>-0.01231935008357497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03611908443366457</v>
+      </c>
+      <c r="E34">
+        <v>0.01423860117912175</v>
+      </c>
+      <c r="F34">
+        <v>-0.05869324508064869</v>
+      </c>
+      <c r="G34">
+        <v>0.07098154272991221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01652484053420819</v>
+        <v>-0.01437856239748828</v>
       </c>
       <c r="C36">
-        <v>-0.01701919089265677</v>
+        <v>0.01332777051987226</v>
       </c>
       <c r="D36">
-        <v>0.006868240117772599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0197549319844193</v>
+      </c>
+      <c r="E36">
+        <v>0.058651687873815</v>
+      </c>
+      <c r="F36">
+        <v>-0.05310598952060214</v>
+      </c>
+      <c r="G36">
+        <v>0.06780855731315284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02989523681474246</v>
+        <v>-0.02319868145316432</v>
       </c>
       <c r="C38">
-        <v>-0.03048747303684344</v>
+        <v>0.02342161248164563</v>
       </c>
       <c r="D38">
-        <v>0.0187778708210052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01803649943333003</v>
+      </c>
+      <c r="E38">
+        <v>0.05049334937472431</v>
+      </c>
+      <c r="F38">
+        <v>-0.04650279727291222</v>
+      </c>
+      <c r="G38">
+        <v>0.04906113250160215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04727733199913849</v>
+        <v>-0.04059665772438611</v>
       </c>
       <c r="C39">
-        <v>-0.06302195517095763</v>
+        <v>0.06292125441877211</v>
       </c>
       <c r="D39">
-        <v>-0.01264711628450144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04660962072279527</v>
+      </c>
+      <c r="E39">
+        <v>0.04811271524592083</v>
+      </c>
+      <c r="F39">
+        <v>-0.07853698855554461</v>
+      </c>
+      <c r="G39">
+        <v>0.06461032105915238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01154688624018799</v>
+        <v>-0.01361862284430641</v>
       </c>
       <c r="C40">
-        <v>-0.0494148623599918</v>
+        <v>0.03705192018432916</v>
       </c>
       <c r="D40">
-        <v>-0.01807643921210701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02479393667683197</v>
+      </c>
+      <c r="E40">
+        <v>0.08460633795972056</v>
+      </c>
+      <c r="F40">
+        <v>-0.04108874637552667</v>
+      </c>
+      <c r="G40">
+        <v>0.10817328411095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0224976977436825</v>
+        <v>-0.01904998173169992</v>
       </c>
       <c r="C41">
-        <v>-0.01476428176156911</v>
+        <v>0.01083447270768088</v>
       </c>
       <c r="D41">
-        <v>0.00305494535630405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01259740719414818</v>
+      </c>
+      <c r="E41">
+        <v>0.05838172860688477</v>
+      </c>
+      <c r="F41">
+        <v>-0.04871231649798294</v>
+      </c>
+      <c r="G41">
+        <v>0.05516348894138094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04106945525487779</v>
+        <v>-0.02979363918092761</v>
       </c>
       <c r="C43">
-        <v>-0.03283265166305564</v>
+        <v>0.02440391799187961</v>
       </c>
       <c r="D43">
-        <v>-0.02379517737684197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0408113101542045</v>
+      </c>
+      <c r="E43">
+        <v>0.0753193471127503</v>
+      </c>
+      <c r="F43">
+        <v>-0.04415983481698861</v>
+      </c>
+      <c r="G43">
+        <v>0.08440064355801462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01417064732806206</v>
+        <v>-0.01485797123477507</v>
       </c>
       <c r="C44">
-        <v>-0.06670461898740818</v>
+        <v>0.04772920757903606</v>
       </c>
       <c r="D44">
-        <v>-0.005320800632107353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02973901870462137</v>
+      </c>
+      <c r="E44">
+        <v>0.08812637608046006</v>
+      </c>
+      <c r="F44">
+        <v>-0.06223935572003978</v>
+      </c>
+      <c r="G44">
+        <v>0.05005485798056765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008613458866208911</v>
+        <v>-0.009072829183527682</v>
       </c>
       <c r="C46">
-        <v>-0.02944562661668707</v>
+        <v>0.02957304377713075</v>
       </c>
       <c r="D46">
-        <v>0.01985986095526076</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0078261654421511</v>
+      </c>
+      <c r="E46">
+        <v>0.05772085181984613</v>
+      </c>
+      <c r="F46">
+        <v>-0.08061010265502537</v>
+      </c>
+      <c r="G46">
+        <v>0.08324659839544137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08535337816020545</v>
+        <v>-0.08915488286592335</v>
       </c>
       <c r="C47">
-        <v>-0.07157615795787782</v>
+        <v>0.08147029894463459</v>
       </c>
       <c r="D47">
-        <v>0.03845265634166873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02719605910726195</v>
+      </c>
+      <c r="E47">
+        <v>0.06705075559573841</v>
+      </c>
+      <c r="F47">
+        <v>-0.0248550844407244</v>
+      </c>
+      <c r="G47">
+        <v>0.07596102648142031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01935817120312369</v>
+        <v>-0.01725572102032956</v>
       </c>
       <c r="C48">
-        <v>-0.01432820389183614</v>
+        <v>0.01548697458829676</v>
       </c>
       <c r="D48">
-        <v>0.0229471548258284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.006972809290832775</v>
+      </c>
+      <c r="E48">
+        <v>0.06827764815296898</v>
+      </c>
+      <c r="F48">
+        <v>-0.06766765124987717</v>
+      </c>
+      <c r="G48">
+        <v>0.07659754617852772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08196822066994279</v>
+        <v>-0.07086446215844114</v>
       </c>
       <c r="C50">
-        <v>-0.08279425859888141</v>
+        <v>0.07570875352842298</v>
       </c>
       <c r="D50">
-        <v>0.04019596007940936</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01083816190122177</v>
+      </c>
+      <c r="E50">
+        <v>0.07391733535696564</v>
+      </c>
+      <c r="F50">
+        <v>-0.002741456516696737</v>
+      </c>
+      <c r="G50">
+        <v>0.09990403036748061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01601251745556064</v>
+        <v>-0.01016998591267023</v>
       </c>
       <c r="C51">
-        <v>-0.04929616340744213</v>
+        <v>0.03189017872635257</v>
       </c>
       <c r="D51">
-        <v>-0.03465557620402512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05148862600495302</v>
+      </c>
+      <c r="E51">
+        <v>0.05151667695277629</v>
+      </c>
+      <c r="F51">
+        <v>-0.07169044072836837</v>
+      </c>
+      <c r="G51">
+        <v>0.06147556075701814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08412106021796542</v>
+        <v>-0.09629368451433967</v>
       </c>
       <c r="C53">
-        <v>-0.07560641833475908</v>
+        <v>0.08551408060587082</v>
       </c>
       <c r="D53">
-        <v>0.05955175537397977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06099301713297599</v>
+      </c>
+      <c r="E53">
+        <v>0.05952258843887755</v>
+      </c>
+      <c r="F53">
+        <v>-0.02301267529844148</v>
+      </c>
+      <c r="G53">
+        <v>0.07460470779434313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03397667566711362</v>
+        <v>-0.02794807753049977</v>
       </c>
       <c r="C54">
-        <v>-0.03897520878459345</v>
+        <v>0.03319434364274786</v>
       </c>
       <c r="D54">
-        <v>0.006104424317064695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0206379388289179</v>
+      </c>
+      <c r="E54">
+        <v>0.05736046263682502</v>
+      </c>
+      <c r="F54">
+        <v>-0.07293752433378362</v>
+      </c>
+      <c r="G54">
+        <v>0.08137655672062986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07782491140672933</v>
+        <v>-0.0876556386312372</v>
       </c>
       <c r="C55">
-        <v>-0.05512371663667325</v>
+        <v>0.06830353157737785</v>
       </c>
       <c r="D55">
-        <v>0.06540342577464173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06273767667414756</v>
+      </c>
+      <c r="E55">
+        <v>0.04137625348711722</v>
+      </c>
+      <c r="F55">
+        <v>-0.008344090472980226</v>
+      </c>
+      <c r="G55">
+        <v>0.0535619002439375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1490311726850158</v>
+        <v>-0.150666417918928</v>
       </c>
       <c r="C56">
-        <v>-0.08994974035759958</v>
+        <v>0.104643937653143</v>
       </c>
       <c r="D56">
-        <v>0.05810934017204301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05929529891761397</v>
+      </c>
+      <c r="E56">
+        <v>0.04020581342963928</v>
+      </c>
+      <c r="F56">
+        <v>0.01270883622685266</v>
+      </c>
+      <c r="G56">
+        <v>0.0256504506541901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0405223606192593</v>
+        <v>-0.02420739374131984</v>
       </c>
       <c r="C58">
-        <v>-0.03055809997665778</v>
+        <v>0.02600094974122064</v>
       </c>
       <c r="D58">
-        <v>-0.6420310496979117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3691396166700465</v>
+      </c>
+      <c r="E58">
+        <v>0.6665126062887511</v>
+      </c>
+      <c r="F58">
+        <v>0.4243065032405235</v>
+      </c>
+      <c r="G58">
+        <v>-0.4114717022876234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1300691352873396</v>
+        <v>-0.144245467480818</v>
       </c>
       <c r="C59">
-        <v>0.1990232414514517</v>
+        <v>-0.1888275554084583</v>
       </c>
       <c r="D59">
-        <v>-0.02457038338657807</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02706944250167754</v>
+      </c>
+      <c r="E59">
+        <v>0.02903349482076248</v>
+      </c>
+      <c r="F59">
+        <v>-0.03047013325004632</v>
+      </c>
+      <c r="G59">
+        <v>-0.01340097915667198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3085275004113958</v>
+        <v>-0.2783446665026499</v>
       </c>
       <c r="C60">
-        <v>-0.1077229554446695</v>
+        <v>0.1083407927877132</v>
       </c>
       <c r="D60">
-        <v>-0.1817839404225574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2686066275520539</v>
+      </c>
+      <c r="E60">
+        <v>-0.2341139190975109</v>
+      </c>
+      <c r="F60">
+        <v>0.07920195867016261</v>
+      </c>
+      <c r="G60">
+        <v>0.02756639177545598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04455439546407243</v>
+        <v>-0.04131289436472221</v>
       </c>
       <c r="C61">
-        <v>-0.06314657215583398</v>
+        <v>0.05975860021525883</v>
       </c>
       <c r="D61">
-        <v>-0.00796028681030507</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03791263266183743</v>
+      </c>
+      <c r="E61">
+        <v>0.05083214792512033</v>
+      </c>
+      <c r="F61">
+        <v>-0.05745077338976471</v>
+      </c>
+      <c r="G61">
+        <v>0.07730971460126541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01685820244819721</v>
+        <v>-0.0154047253040971</v>
       </c>
       <c r="C63">
-        <v>-0.03388875724345884</v>
+        <v>0.03121025086350337</v>
       </c>
       <c r="D63">
-        <v>0.02384980542214219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01187675829717831</v>
+      </c>
+      <c r="E63">
+        <v>0.05997799860331481</v>
+      </c>
+      <c r="F63">
+        <v>-0.0394895394757894</v>
+      </c>
+      <c r="G63">
+        <v>0.07793518616440462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05094082593068091</v>
+        <v>-0.05597876792168049</v>
       </c>
       <c r="C64">
-        <v>-0.04649032138421629</v>
+        <v>0.05691147191387354</v>
       </c>
       <c r="D64">
-        <v>0.004611607998505522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.001086847233207648</v>
+      </c>
+      <c r="E64">
+        <v>0.03637597526456</v>
+      </c>
+      <c r="F64">
+        <v>-0.06301721281552215</v>
+      </c>
+      <c r="G64">
+        <v>0.06543742503224415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08137187096431191</v>
+        <v>-0.0655280472140473</v>
       </c>
       <c r="C65">
-        <v>-0.03077972101156482</v>
+        <v>0.02908860952485122</v>
       </c>
       <c r="D65">
-        <v>-0.05516870810018879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08397459801361493</v>
+      </c>
+      <c r="E65">
+        <v>0.05829581973788332</v>
+      </c>
+      <c r="F65">
+        <v>-0.009182336601993227</v>
+      </c>
+      <c r="G65">
+        <v>0.02605516182157516</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06321909699265989</v>
+        <v>-0.05276106407783854</v>
       </c>
       <c r="C66">
-        <v>-0.08608427001352607</v>
+        <v>0.08015145903348717</v>
       </c>
       <c r="D66">
-        <v>-0.03226571998316512</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07103432827615136</v>
+      </c>
+      <c r="E66">
+        <v>0.05726938103548244</v>
+      </c>
+      <c r="F66">
+        <v>-0.07148125422580837</v>
+      </c>
+      <c r="G66">
+        <v>0.08043101921975088</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05176465404966991</v>
+        <v>-0.04482981341082638</v>
       </c>
       <c r="C67">
-        <v>-0.03131491979695755</v>
+        <v>0.02860554265446589</v>
       </c>
       <c r="D67">
-        <v>0.02597704674487721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.002917624316930967</v>
+      </c>
+      <c r="E67">
+        <v>0.02624427308557289</v>
+      </c>
+      <c r="F67">
+        <v>-0.0338530370480093</v>
+      </c>
+      <c r="G67">
+        <v>0.03945039087529757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1276263896790318</v>
+        <v>-0.1511508451836168</v>
       </c>
       <c r="C68">
-        <v>0.2801032064186373</v>
+        <v>-0.2441800646825172</v>
       </c>
       <c r="D68">
-        <v>0.007961828099939354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01699980206911132</v>
+      </c>
+      <c r="E68">
+        <v>0.03779740042427209</v>
+      </c>
+      <c r="F68">
+        <v>-0.001739709406793464</v>
+      </c>
+      <c r="G68">
+        <v>0.03128328762181102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0912540031251417</v>
+        <v>-0.08681391013771185</v>
       </c>
       <c r="C69">
-        <v>-0.07189361377691789</v>
+        <v>0.08960693521427114</v>
       </c>
       <c r="D69">
-        <v>0.05114509495862014</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01796820697415525</v>
+      </c>
+      <c r="E69">
+        <v>0.052759109819339</v>
+      </c>
+      <c r="F69">
+        <v>-0.05741203700895692</v>
+      </c>
+      <c r="G69">
+        <v>0.07950758466981697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1171117280935412</v>
+        <v>-0.1443180197292966</v>
       </c>
       <c r="C71">
-        <v>0.2546348150660045</v>
+        <v>-0.2408200941580361</v>
       </c>
       <c r="D71">
-        <v>-0.01141601339130768</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00362778215476944</v>
+      </c>
+      <c r="E71">
+        <v>0.05901587950597429</v>
+      </c>
+      <c r="F71">
+        <v>-0.01132463798270452</v>
+      </c>
+      <c r="G71">
+        <v>0.05628082575311263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09260776853426309</v>
+        <v>-0.1003693213418387</v>
       </c>
       <c r="C72">
-        <v>-0.0545341754609595</v>
+        <v>0.0579569463378467</v>
       </c>
       <c r="D72">
-        <v>-0.002257267983057389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0259603050154797</v>
+      </c>
+      <c r="E72">
+        <v>0.02707716615188368</v>
+      </c>
+      <c r="F72">
+        <v>-0.03291541269296597</v>
+      </c>
+      <c r="G72">
+        <v>0.07617285206465874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4039566673025621</v>
+        <v>-0.3419445843516273</v>
       </c>
       <c r="C73">
-        <v>-0.04034622108129281</v>
+        <v>0.06909149304136535</v>
       </c>
       <c r="D73">
-        <v>-0.4330038677247761</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.534366101865022</v>
+      </c>
+      <c r="E73">
+        <v>-0.4284618937266014</v>
+      </c>
+      <c r="F73">
+        <v>0.2234076439769829</v>
+      </c>
+      <c r="G73">
+        <v>0.006816119617581805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1045073710743068</v>
+        <v>-0.1093032421810973</v>
       </c>
       <c r="C74">
-        <v>-0.0964862101223314</v>
+        <v>0.09552023010838488</v>
       </c>
       <c r="D74">
-        <v>0.0421190904361765</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04980702884796332</v>
+      </c>
+      <c r="E74">
+        <v>0.05902290805224032</v>
+      </c>
+      <c r="F74">
+        <v>0.01584247436465393</v>
+      </c>
+      <c r="G74">
+        <v>0.05573022379110348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2537510631806472</v>
+        <v>-0.2577242960416463</v>
       </c>
       <c r="C75">
-        <v>-0.1029201412519318</v>
+        <v>0.1309910832114363</v>
       </c>
       <c r="D75">
-        <v>0.1357685037668678</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1578173495176287</v>
+      </c>
+      <c r="E75">
+        <v>0.0378031774008637</v>
+      </c>
+      <c r="F75">
+        <v>0.05552408892419183</v>
+      </c>
+      <c r="G75">
+        <v>-0.04041719363647276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1146185946661734</v>
+        <v>-0.1284279442253377</v>
       </c>
       <c r="C76">
-        <v>-0.0803831029636369</v>
+        <v>0.09274593293849417</v>
       </c>
       <c r="D76">
-        <v>0.07149003761557578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08249744003240937</v>
+      </c>
+      <c r="E76">
+        <v>0.06493965780254095</v>
+      </c>
+      <c r="F76">
+        <v>-0.004543706699597405</v>
+      </c>
+      <c r="G76">
+        <v>0.03788788221252826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07791544969317213</v>
+        <v>-0.06367294423541162</v>
       </c>
       <c r="C77">
-        <v>-0.05190351437510308</v>
+        <v>0.06222354956839972</v>
       </c>
       <c r="D77">
-        <v>-0.04703106264643492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04667054403811754</v>
+      </c>
+      <c r="E77">
+        <v>0.1012967329175632</v>
+      </c>
+      <c r="F77">
+        <v>-0.1724387303045756</v>
+      </c>
+      <c r="G77">
+        <v>-0.09248445672111287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04912182065269522</v>
+        <v>-0.04571430313095436</v>
       </c>
       <c r="C78">
-        <v>-0.04583639913022729</v>
+        <v>0.05582049422887362</v>
       </c>
       <c r="D78">
-        <v>-0.01824715786858026</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05524089644875375</v>
+      </c>
+      <c r="E78">
+        <v>0.05702156775474238</v>
+      </c>
+      <c r="F78">
+        <v>-0.06197053374751427</v>
+      </c>
+      <c r="G78">
+        <v>0.0647398327897426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0301537894745622</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04547238610748823</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07861550676383794</v>
+      </c>
+      <c r="E79">
+        <v>0.05736563555119605</v>
+      </c>
+      <c r="F79">
+        <v>0.02618634488973374</v>
+      </c>
+      <c r="G79">
+        <v>0.04132511131694371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03841861831794197</v>
+        <v>-0.02993804881552525</v>
       </c>
       <c r="C80">
-        <v>-0.04846543311914823</v>
+        <v>0.04978418891248002</v>
       </c>
       <c r="D80">
-        <v>-0.03050352120048294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03943752155518604</v>
+      </c>
+      <c r="E80">
+        <v>0.01972677402599125</v>
+      </c>
+      <c r="F80">
+        <v>-0.05329558640788042</v>
+      </c>
+      <c r="G80">
+        <v>-0.001437845065830675</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1391983308341753</v>
+        <v>-0.139462901418975</v>
       </c>
       <c r="C81">
-        <v>-0.07545570974157335</v>
+        <v>0.09347321223237218</v>
       </c>
       <c r="D81">
-        <v>0.1004506265859361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1258256756342256</v>
+      </c>
+      <c r="E81">
+        <v>0.06474811470225018</v>
+      </c>
+      <c r="F81">
+        <v>0.03619292788400322</v>
+      </c>
+      <c r="G81">
+        <v>-0.008105748034176293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1786177042923141</v>
+        <v>-0.215332941880217</v>
       </c>
       <c r="C82">
-        <v>-0.08974376206642942</v>
+        <v>0.1542319172162809</v>
       </c>
       <c r="D82">
-        <v>0.1840780297076355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2488249168065028</v>
+      </c>
+      <c r="E82">
+        <v>-0.026032774409555</v>
+      </c>
+      <c r="F82">
+        <v>-0.03463875678263949</v>
+      </c>
+      <c r="G82">
+        <v>0.03939674106348837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03987599044633886</v>
+        <v>-0.02722172638290977</v>
       </c>
       <c r="C83">
-        <v>-0.0312646774908214</v>
+        <v>0.04371934061478924</v>
       </c>
       <c r="D83">
-        <v>-0.03680892878235177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02896973027424541</v>
+      </c>
+      <c r="E83">
+        <v>0.02777155923438731</v>
+      </c>
+      <c r="F83">
+        <v>-0.04746860176822704</v>
+      </c>
+      <c r="G83">
+        <v>0.01003932943658154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004595158490353982</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001733708729585075</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002116722788187342</v>
+      </c>
+      <c r="E84">
+        <v>0.002301647126806662</v>
+      </c>
+      <c r="F84">
+        <v>0.0009083872974701927</v>
+      </c>
+      <c r="G84">
+        <v>0.002393029966806425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2230596847807426</v>
+        <v>-0.2050085046738481</v>
       </c>
       <c r="C85">
-        <v>-0.09602577809621103</v>
+        <v>0.1131719650875835</v>
       </c>
       <c r="D85">
-        <v>0.1640606169719109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1225134173600358</v>
+      </c>
+      <c r="E85">
+        <v>-0.02984167574162967</v>
+      </c>
+      <c r="F85">
+        <v>0.1059720086277234</v>
+      </c>
+      <c r="G85">
+        <v>0.002826505430156369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008407345865892001</v>
+        <v>-0.01087847524865356</v>
       </c>
       <c r="C86">
-        <v>-0.02564722538374905</v>
+        <v>0.01835338310384409</v>
       </c>
       <c r="D86">
-        <v>-0.03872366092738239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05234811639879756</v>
+      </c>
+      <c r="E86">
+        <v>0.07885484498997758</v>
+      </c>
+      <c r="F86">
+        <v>-0.09540030279233232</v>
+      </c>
+      <c r="G86">
+        <v>0.076446324516538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02452169968357933</v>
+        <v>-0.02465277136080855</v>
       </c>
       <c r="C87">
-        <v>-0.004002165403324077</v>
+        <v>0.01227430574438985</v>
       </c>
       <c r="D87">
-        <v>-0.07698856056757115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07447198723962987</v>
+      </c>
+      <c r="E87">
+        <v>0.1292524717783106</v>
+      </c>
+      <c r="F87">
+        <v>-0.07776061680138391</v>
+      </c>
+      <c r="G87">
+        <v>0.01780958692103655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1085056191594802</v>
+        <v>-0.09357142529566842</v>
       </c>
       <c r="C88">
-        <v>-0.0715992660805988</v>
+        <v>0.06151432663384011</v>
       </c>
       <c r="D88">
-        <v>0.02548455421555001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006176093929670281</v>
+      </c>
+      <c r="E88">
+        <v>0.05243466509145837</v>
+      </c>
+      <c r="F88">
+        <v>-0.06602213476130482</v>
+      </c>
+      <c r="G88">
+        <v>0.04307938380075359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.18349926111335</v>
+        <v>-0.2202231996223494</v>
       </c>
       <c r="C89">
-        <v>0.3762929233763543</v>
+        <v>-0.3802767478723609</v>
       </c>
       <c r="D89">
-        <v>0.03208178612734678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02673755128931806</v>
+      </c>
+      <c r="E89">
+        <v>0.06758794436784366</v>
+      </c>
+      <c r="F89">
+        <v>-0.1009681289546344</v>
+      </c>
+      <c r="G89">
+        <v>-0.003196992089308793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1767189918829969</v>
+        <v>-0.2002310716022557</v>
       </c>
       <c r="C90">
-        <v>0.3350934613175054</v>
+        <v>-0.3103884439420866</v>
       </c>
       <c r="D90">
-        <v>0.03916246596240003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02744759540121958</v>
+      </c>
+      <c r="E90">
+        <v>0.06586582670435476</v>
+      </c>
+      <c r="F90">
+        <v>-0.03106933016474383</v>
+      </c>
+      <c r="G90">
+        <v>0.01159092456021751</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1898363946362394</v>
+        <v>-0.1865545734864198</v>
       </c>
       <c r="C91">
-        <v>-0.1287707627358439</v>
+        <v>0.1438998191109923</v>
       </c>
       <c r="D91">
-        <v>0.1270596004280535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1321098869371513</v>
+      </c>
+      <c r="E91">
+        <v>0.04287625466837672</v>
+      </c>
+      <c r="F91">
+        <v>0.01702858297744565</v>
+      </c>
+      <c r="G91">
+        <v>0.001511490526568213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1604143405224455</v>
+        <v>-0.1808824267077246</v>
       </c>
       <c r="C92">
-        <v>0.2864071044339209</v>
+        <v>-0.290779857099899</v>
       </c>
       <c r="D92">
-        <v>0.03414116944893655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02923548621548815</v>
+      </c>
+      <c r="E92">
+        <v>0.06869647897354367</v>
+      </c>
+      <c r="F92">
+        <v>-0.06972140879563732</v>
+      </c>
+      <c r="G92">
+        <v>0.0336664544294436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1981041461197523</v>
+        <v>-0.221820950321803</v>
       </c>
       <c r="C93">
-        <v>0.3389607548718982</v>
+        <v>-0.3193900647748317</v>
       </c>
       <c r="D93">
-        <v>0.04059062373038906</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02231099174762498</v>
+      </c>
+      <c r="E93">
+        <v>0.0408607093044417</v>
+      </c>
+      <c r="F93">
+        <v>-0.005819187470658432</v>
+      </c>
+      <c r="G93">
+        <v>0.04171515958562132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3343566660304129</v>
+        <v>-0.3372433883127466</v>
       </c>
       <c r="C94">
-        <v>-0.1527825139390692</v>
+        <v>0.1882309537614256</v>
       </c>
       <c r="D94">
-        <v>0.3463368878392059</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4034480282317824</v>
+      </c>
+      <c r="E94">
+        <v>-0.005180592569045787</v>
+      </c>
+      <c r="F94">
+        <v>0.1496042876837564</v>
+      </c>
+      <c r="G94">
+        <v>-0.3988792240556785</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.116694463187909</v>
+        <v>-0.08622480273845937</v>
       </c>
       <c r="C95">
-        <v>-0.06537578009641501</v>
+        <v>0.06250341433386222</v>
       </c>
       <c r="D95">
-        <v>-0.1853002581677441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1918471767355907</v>
+      </c>
+      <c r="E95">
+        <v>-0.08052442885068661</v>
+      </c>
+      <c r="F95">
+        <v>-0.6938589554270979</v>
+      </c>
+      <c r="G95">
+        <v>-0.5964773403568224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1950413526252188</v>
+        <v>-0.1874813950211496</v>
       </c>
       <c r="C98">
-        <v>-0.01745531134044593</v>
+        <v>0.04556443053135591</v>
       </c>
       <c r="D98">
-        <v>-0.1456525599171438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.202367194571286</v>
+      </c>
+      <c r="E98">
+        <v>-0.1288368476014461</v>
+      </c>
+      <c r="F98">
+        <v>0.07813609915480936</v>
+      </c>
+      <c r="G98">
+        <v>0.07358356102642856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006919141326367037</v>
+        <v>-0.005397105445957231</v>
       </c>
       <c r="C101">
-        <v>-0.03422249863686659</v>
+        <v>0.02937340365916501</v>
       </c>
       <c r="D101">
-        <v>0.01833128479609616</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01329211174776915</v>
+      </c>
+      <c r="E101">
+        <v>0.04882566498263975</v>
+      </c>
+      <c r="F101">
+        <v>-0.06965493162269609</v>
+      </c>
+      <c r="G101">
+        <v>0.08335824236785823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1251415491313216</v>
+        <v>-0.1268983025976992</v>
       </c>
       <c r="C102">
-        <v>-0.06755462609670729</v>
+        <v>0.09996505853277719</v>
       </c>
       <c r="D102">
-        <v>0.0468889905440797</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0563491931650759</v>
+      </c>
+      <c r="E102">
+        <v>-0.01431361771361644</v>
+      </c>
+      <c r="F102">
+        <v>-0.01888349332126186</v>
+      </c>
+      <c r="G102">
+        <v>-0.01208314922243192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
